--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="17940" windowHeight="8244" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="16176" windowHeight="8244" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -12,48 +12,12 @@
     <sheet name="RunnerConfig" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q25"/>
+  <oleSize ref="A1:P27"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
-  <si>
-    <t>DEL</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>TripType</t>
-  </si>
-  <si>
-    <t>DepartDate</t>
-  </si>
-  <si>
-    <t>ReturnDate</t>
-  </si>
-  <si>
-    <t>Traveler</t>
-  </si>
-  <si>
-    <t>MUM</t>
-  </si>
-  <si>
-    <t>RoundTrip</t>
-  </si>
-  <si>
-    <t>LAS</t>
-  </si>
-  <si>
-    <t>LAX</t>
-  </si>
-  <si>
-    <t>OneWay</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TestName</t>
   </si>
@@ -456,7 +420,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,82 +434,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3">
-        <v>12</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -556,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -570,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -585,30 +503,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
